--- a/data/trans_bre/P12_3_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.36909469778297</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.539072508944433</v>
+        <v>2.539072508944434</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4361895733959861</v>
@@ -649,7 +649,7 @@
         <v>0.4568185406481302</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2570056732550693</v>
+        <v>0.2570056732550694</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.427512413507388</v>
+        <v>-0.4058813678029259</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.16882102529009</v>
+        <v>2.321278831592436</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9538582331979965</v>
+        <v>0.6138548588897593</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2976352376270174</v>
+        <v>-0.2111856256567105</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.09693147734720631</v>
+        <v>-0.1212934895575314</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2085743167302718</v>
+        <v>0.2334025808858796</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08592589912109594</v>
+        <v>0.07588762402064464</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.03211567242025352</v>
+        <v>-0.02662334054825366</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.994033342295265</v>
+        <v>4.048866172190625</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.36566891957523</v>
+        <v>8.861205288594915</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.738582073165786</v>
+        <v>7.678023398353777</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.491083764722152</v>
+        <v>5.742879966561441</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.32037466508818</v>
+        <v>1.407233281833773</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.348381358620778</v>
+        <v>1.277126123055809</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9449898460493864</v>
+        <v>0.9998929382189226</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6456585985624935</v>
+        <v>0.7069962246728305</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.639028551123814</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.141885356459756</v>
+        <v>6.141885356459757</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4683626619184154</v>
@@ -749,7 +749,7 @@
         <v>0.6524194977808206</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.6681761779472322</v>
+        <v>0.6681761779472325</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3682597007411509</v>
+        <v>0.4205757268731553</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.706882837121459</v>
+        <v>2.584788508978153</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.075850959453402</v>
+        <v>1.365744922507078</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.441290075804718</v>
+        <v>3.591606598096512</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05441016530542869</v>
+        <v>0.05099037407452002</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2784814690054165</v>
+        <v>0.2676413794702663</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1469333256500358</v>
+        <v>0.1891807324044303</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.318179511642409</v>
+        <v>0.3524689157343156</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.257276123951478</v>
+        <v>5.52584003536378</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.131647991363256</v>
+        <v>8.304401201018837</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.889408855895456</v>
+        <v>5.971496006861092</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.602724720150121</v>
+        <v>8.762585783259489</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.112250177748205</v>
+        <v>1.078549085348542</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.186636811813536</v>
+        <v>1.194798381224304</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.256379504395844</v>
+        <v>1.265625389444179</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.090461347190467</v>
+        <v>1.122415570780515</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2669937606083999</v>
+        <v>-0.313814060908684</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.655792163225436</v>
+        <v>1.693896991422545</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8445075234532031</v>
+        <v>1.010817836431854</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.873315707036809</v>
+        <v>-1.801377138944226</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.05905453034196116</v>
+        <v>-0.04531546074860395</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1757776365373701</v>
+        <v>0.1955528989190883</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09955491887854349</v>
+        <v>0.1026221121210547</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1403755192963022</v>
+        <v>-0.1445381882211881</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.003921547048712</v>
+        <v>4.99901927986774</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.724012126685056</v>
+        <v>7.782442217418525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.396483872140161</v>
+        <v>6.845710258971241</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.194577033363261</v>
+        <v>4.879716758667811</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.259659105506445</v>
+        <v>1.275943184517031</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.278101048523802</v>
+        <v>1.365480558903806</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.322473584947291</v>
+        <v>1.220678313570316</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5952299582089209</v>
+        <v>0.5344547418157626</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>5.304979026205077</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.744588062406213</v>
+        <v>4.744588062406215</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.152106693213213</v>
@@ -949,7 +949,7 @@
         <v>0.6466587368971672</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3875226102674348</v>
+        <v>0.3875226102674349</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.496235195289714</v>
+        <v>3.207858913646407</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.29213956875135</v>
+        <v>2.439084010563203</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.613267419134403</v>
+        <v>2.512348364666497</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.937606930664568</v>
+        <v>1.682844019850996</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5623841038607151</v>
+        <v>0.519279656395913</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2232365594928046</v>
+        <v>0.2335449397047847</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2692569308991995</v>
+        <v>0.2685409127878615</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1346853041838652</v>
+        <v>0.1219972826336176</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.134924135833399</v>
+        <v>8.110578260899301</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.035888553043709</v>
+        <v>8.177215379197364</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.360417823053268</v>
+        <v>8.255192268908401</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.82087931081087</v>
+        <v>7.58925974031709</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.093664628015715</v>
+        <v>2.023222650888945</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.090670886713847</v>
+        <v>1.118032222703025</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.198907120718774</v>
+        <v>1.215170027415652</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7483546839104324</v>
+        <v>0.6996683780063307</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.362123619370288</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.079682879528787</v>
+        <v>4.079682879528788</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6731651055493908</v>
@@ -1049,7 +1049,7 @@
         <v>0.5911428078144881</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3868362450805542</v>
+        <v>0.3868362450805544</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.156045011528925</v>
+        <v>2.192042717674228</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.723766868460027</v>
+        <v>3.847366613447403</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.985043841671992</v>
+        <v>2.931170786172481</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.698510105916041</v>
+        <v>2.597225896839241</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3753259384888453</v>
+        <v>0.3939408665181782</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4231511422219462</v>
+        <v>0.4395186328093492</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3722768097075722</v>
+        <v>0.3556250299461525</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2319151400132651</v>
+        <v>0.2275759797886192</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.756395595915502</v>
+        <v>4.70644845388074</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.733358023141478</v>
+        <v>6.709564179728986</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.902908623161367</v>
+        <v>5.708899799897568</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.543826313231855</v>
+        <v>5.517202511865158</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.029987815014734</v>
+        <v>1.038189944545483</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9291468618706976</v>
+        <v>0.903125144337968</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8858178656242568</v>
+        <v>0.8439307584611713</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5700335657100254</v>
+        <v>0.5651397817604823</v>
       </c>
     </row>
     <row r="19">
